--- a/多线程/笔记课件/线程的状态及其转换.xlsx
+++ b/多线程/笔记课件/线程的状态及其转换.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8A1938-D645-4FAF-BCAF-7539D5F21F3C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -182,13 +181,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -205,8 +204,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4829175" y="533400"/>
-          <a:ext cx="1276350" cy="695325"/>
+          <a:off x="4743450" y="523875"/>
+          <a:ext cx="1238250" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -557,7 +556,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>157163</xdr:rowOff>
     </xdr:from>
@@ -565,7 +564,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
+      <xdr:rowOff>7144</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -583,8 +582,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6334125" y="881063"/>
-          <a:ext cx="2895600" cy="28575"/>
+          <a:off x="5981700" y="862013"/>
+          <a:ext cx="2733675" cy="26194"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -613,13 +612,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>666751</xdr:colOff>
+      <xdr:colOff>619126</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
+      <xdr:colOff>42864</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -639,12 +638,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="7767638" y="-1538287"/>
-          <a:ext cx="28575" cy="4171950"/>
+          <a:off x="7329488" y="-1443037"/>
+          <a:ext cx="23813" cy="3957638"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 900000"/>
+            <a:gd name="adj1" fmla="val 1059980"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -671,7 +670,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:colOff>619125</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
@@ -697,8 +696,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5695950" y="1228725"/>
-          <a:ext cx="1247775" cy="1781175"/>
+          <a:off x="5362575" y="1200150"/>
+          <a:ext cx="1219200" cy="1733550"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -727,13 +726,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:colOff>619126</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>590551</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>100013</xdr:rowOff>
     </xdr:to>
@@ -753,8 +752,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="5695950" y="1228725"/>
-          <a:ext cx="609600" cy="2128838"/>
+          <a:off x="5362576" y="1200150"/>
+          <a:ext cx="619125" cy="2071688"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -783,7 +782,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>157163</xdr:rowOff>
     </xdr:from>
@@ -809,8 +808,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6334125" y="881063"/>
-          <a:ext cx="4057650" cy="2128837"/>
+          <a:off x="5981700" y="862013"/>
+          <a:ext cx="3857625" cy="2071687"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -839,15 +838,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>619126</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>157163</xdr:rowOff>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>609601</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -858,15 +857,12 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="1"/>
-          <a:endCxn id="3" idx="3"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="6334126" y="881063"/>
-          <a:ext cx="3419475" cy="2476500"/>
+          <a:off x="5981701" y="971550"/>
+          <a:ext cx="3228975" cy="2409825"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst/>
@@ -895,15 +891,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>157163</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -920,8 +916,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3095625" y="881063"/>
-          <a:ext cx="1962150" cy="2233612"/>
+          <a:off x="3038475" y="862013"/>
+          <a:ext cx="1704975" cy="1985962"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1212,34 +1208,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E2:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="5:13" x14ac:dyDescent="0.4">
       <c r="L2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="5:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="5:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="5:13" x14ac:dyDescent="0.4">
       <c r="K6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="5:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="5:13" x14ac:dyDescent="0.4">
       <c r="F12" t="s">
         <v>7</v>
       </c>
@@ -1247,7 +1243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="5:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="5:13" x14ac:dyDescent="0.4">
       <c r="H13" t="s">
         <v>4</v>
       </c>
@@ -1255,7 +1251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="5:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="5:13" x14ac:dyDescent="0.4">
       <c r="L14" t="s">
         <v>6</v>
       </c>
